--- a/T1.xlsx
+++ b/T1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e535f8675989f1ab/code/autopython/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{73D612FC-9C1E-431B-BA87-08C7A0A880DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4D85A34-AA4E-4F40-B833-0F75C1122BDC}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{73D612FC-9C1E-431B-BA87-08C7A0A880DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DEEFEB9-B51C-4D94-B518-675DBD4858C8}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="0" windowWidth="18920" windowHeight="13580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="960" windowWidth="23140" windowHeight="11780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -46,11 +46,74 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>杭州-4G干扰协调-杭州下沙七格工业园北_129</t>
-  </si>
-  <si>
-    <t>【服务内容】：未经许可的无线电设备的清理整治
-【本次工单服务内容】：来源：用户投诉；小区名称：杭州下沙七格工业园北_129；CGI：460-00-598930-129；问题发生时间：2023-9-1；干扰最强值：-102.6dbm；位置：浙江省杭州市钱塘区幸福南路122号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-110门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2023-10-1</t>
+    <t>杭州-4G干扰协调-余杭联华超市勾庄农副产品物流中心LY小洋坝农产品物流园_130</t>
+  </si>
+  <si>
+    <t>杭州-4G干扰协调-杭州李家桥LY滨江锦绣之城7幢FDD1800_130</t>
+  </si>
+  <si>
+    <t>杭州-4G干扰协调-余杭八方城城市综合体7号楼SF_130</t>
+  </si>
+  <si>
+    <t>杭州-4G干扰协调-杭州瑞莱克斯大酒店LY方正御星53度FDD1800_132</t>
+  </si>
+  <si>
+    <t>杭州-4G干扰协调-萧山俞家潭LY萧山区政府_129</t>
+  </si>
+  <si>
+    <t>杭州-4G干扰协调-余杭计家斗FDD900_131</t>
+  </si>
+  <si>
+    <t>杭州-4G干扰协调-杭州春波小区三区块六期22号楼WG45度330度_130</t>
+  </si>
+  <si>
+    <t>杭州-4G干扰协调-余杭西溪靖源国际LY余杭顾家桥北_129</t>
+  </si>
+  <si>
+    <t>杭州-4G干扰协调-萧山风情大道南段浅埋隧道SF_129</t>
+  </si>
+  <si>
+    <t>杭州-4G干扰协调-萧山恒逸南岸明珠LY2号1号楼高层对打_139</t>
+  </si>
+  <si>
+    <t>【服务内容】：未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：用户投诉；小区名称：余杭联华超市勾庄农副产品物流中心LY小洋坝农产品物流园_130；CGI：460-00-599458-130；问题发生时间：2023-9-4；干扰最强值：-99.05dbm；位置：杭州市余杭区博园西路2-6号附近；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-110门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2023-10-4</t>
+  </si>
+  <si>
+    <t>【服务内容】：未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：用户投诉；小区名称：杭州李家桥LY滨江锦绣之城7幢FDD1800_130；CGI：460-00-599566-130；问题发生时间：2023-9-4；干扰最强值：-106.3dbm；位置：浙江省杭州市拱墅区正德里街77号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-110门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2023-10-4</t>
+  </si>
+  <si>
+    <t>【服务内容】：未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：用户投诉；小区名称：余杭八方城城市综合体7号楼SF_130；CGI：460-00-599574-130；问题发生时间：2023-9-4；干扰最强值：-93.45dbm；位置：浙江省杭州市余杭区邱桥路与红旗路交叉口；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-110门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2023-10-4</t>
+  </si>
+  <si>
+    <t>【服务内容】：未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：用户投诉；小区名称：杭州瑞莱克斯大酒店LY方正御星53度FDD1800_132；CGI：460-00-599811-132；问题发生时间：2023-9-4；干扰最强值：-108.63dbm；位置：浙江省杭州市拱墅区星桥街199号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-110门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2023-10-4</t>
+  </si>
+  <si>
+    <t>【服务内容】：未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：用户投诉；小区名称：萧山俞家潭LY萧山区政府_129；CGI：460-00-600024-129；问题发生时间：2023-9-4；干扰最强值：-94.8dbm；位置：浙江省杭州市萧山区金惠路398号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-110门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2023-10-4</t>
+  </si>
+  <si>
+    <t>【服务内容】：未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：用户投诉；小区名称：余杭计家斗FDD900_131；CGI：460-00-606218-131；问题发生时间：2023-9-4；干扰最强值：-102.2dbm；位置：浙江省杭州市余杭区花和雅居；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-110门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2023-10-4</t>
+  </si>
+  <si>
+    <t>【服务内容】：未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：用户投诉；小区名称：杭州春波小区三区块六期22号楼WG45度330度_130；CGI：460-00-606221-130；问题发生时间：2023-9-4；干扰最强值：-98.97dbm；位置：浙江省杭州市滨江区江陵路与滨兴路交叉口；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-110门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2023-10-4</t>
+  </si>
+  <si>
+    <t>【服务内容】：未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：用户投诉；小区名称：余杭西溪靖源国际LY余杭顾家桥北_129；CGI：460-00-606288-129；问题发生时间：2023-9-4；干扰最强值：-100.58dbm；位置：杭州市余杭区西坝路西溪花城西-北区；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-110门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2023-10-4</t>
+  </si>
+  <si>
+    <t>【服务内容】：未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：用户投诉；小区名称：萧山风情大道南段浅埋隧道SF_129；CGI：460-00-606308-129；问题发生时间：2023-9-4；干扰最强值：-88.87dbm；位置：浙江省杭州市萧山区湘湖路337号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-110门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2023-10-4</t>
+  </si>
+  <si>
+    <t>【服务内容】：未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：用户投诉；小区名称：萧山恒逸南岸明珠LY2号1号楼高层对打_139；CGI：460-00-606360-139；问题发生时间：2023-9-4；干扰最强值：-99.82dbm；位置：杭州市萧山区市心北路260号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-110门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2023-10-4</t>
   </si>
 </sst>
 </file>
@@ -112,13 +175,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -403,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -423,12 +483,84 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="143" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="52" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="52" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="39" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="52" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="39" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="39" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="52" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="39" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="39" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="52" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/T1.xlsx
+++ b/T1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e535f8675989f1ab/code/autopython/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{73D612FC-9C1E-431B-BA87-08C7A0A880DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DEEFEB9-B51C-4D94-B518-675DBD4858C8}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{73D612FC-9C1E-431B-BA87-08C7A0A880DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6D6AE84-B8E3-45B2-ADFA-9B656A8D2EBF}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="960" windowWidth="23140" windowHeight="11780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6560" yWindow="1040" windowWidth="19600" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -46,81 +46,32 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>杭州-4G干扰协调-余杭联华超市勾庄农副产品物流中心LY小洋坝农产品物流园_130</t>
-  </si>
-  <si>
-    <t>杭州-4G干扰协调-杭州李家桥LY滨江锦绣之城7幢FDD1800_130</t>
-  </si>
-  <si>
-    <t>杭州-4G干扰协调-余杭八方城城市综合体7号楼SF_130</t>
-  </si>
-  <si>
-    <t>杭州-4G干扰协调-杭州瑞莱克斯大酒店LY方正御星53度FDD1800_132</t>
-  </si>
-  <si>
-    <t>杭州-4G干扰协调-萧山俞家潭LY萧山区政府_129</t>
-  </si>
-  <si>
-    <t>杭州-4G干扰协调-余杭计家斗FDD900_131</t>
-  </si>
-  <si>
-    <t>杭州-4G干扰协调-杭州春波小区三区块六期22号楼WG45度330度_130</t>
-  </si>
-  <si>
-    <t>杭州-4G干扰协调-余杭西溪靖源国际LY余杭顾家桥北_129</t>
-  </si>
-  <si>
-    <t>杭州-4G干扰协调-萧山风情大道南段浅埋隧道SF_129</t>
-  </si>
-  <si>
-    <t>杭州-4G干扰协调-萧山恒逸南岸明珠LY2号1号楼高层对打_139</t>
+    <t>杭州-4G干扰协调-萧山郡望府LY萧山中铁雅逸府SF_68</t>
+  </si>
+  <si>
+    <t>杭州-4G干扰协调-H418568-临平塘栖福斯达-HFH-FD18102-66</t>
+  </si>
+  <si>
+    <t>杭州-4G干扰协调-H418570-杭州滨江区政府-HFH-FD18102-明豪大厦LY-66</t>
   </si>
   <si>
     <t>【服务内容】：未经许可的无线电设备的清理整治
-【本次工单服务内容】：来源：用户投诉；小区名称：余杭联华超市勾庄农副产品物流中心LY小洋坝农产品物流园_130；CGI：460-00-599458-130；问题发生时间：2023-9-4；干扰最强值：-99.05dbm；位置：杭州市余杭区博园西路2-6号附近；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-110门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2023-10-4</t>
+【本次工单服务内容】：来源：用户投诉；小区名称：萧山郡望府LY萧山中铁雅逸府SF_68；CGI：460-00-821685-68；问题发生时间：2023-9-18；干扰最强值：-99dbm；位置：浙江省杭州市萧山区香樟路与戚枫路交叉口西160米；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-110门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2023-10-18</t>
   </si>
   <si>
     <t>【服务内容】：未经许可的无线电设备的清理整治
-【本次工单服务内容】：来源：用户投诉；小区名称：杭州李家桥LY滨江锦绣之城7幢FDD1800_130；CGI：460-00-599566-130；问题发生时间：2023-9-4；干扰最强值：-106.3dbm；位置：浙江省杭州市拱墅区正德里街77号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-110门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2023-10-4</t>
+【本次工单服务内容】：来源：用户投诉；小区名称：H418568-临平塘栖福斯达-HFH-FD18102-66；CGI：460-00-821687-66；问题发生时间：2023-9-18；干扰最强值：-100.03dbm；位置：浙江省杭州市临平区临平街道昌达路118号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-110门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2023-10-18</t>
   </si>
   <si>
     <t>【服务内容】：未经许可的无线电设备的清理整治
-【本次工单服务内容】：来源：用户投诉；小区名称：余杭八方城城市综合体7号楼SF_130；CGI：460-00-599574-130；问题发生时间：2023-9-4；干扰最强值：-93.45dbm；位置：浙江省杭州市余杭区邱桥路与红旗路交叉口；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-110门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2023-10-4</t>
-  </si>
-  <si>
-    <t>【服务内容】：未经许可的无线电设备的清理整治
-【本次工单服务内容】：来源：用户投诉；小区名称：杭州瑞莱克斯大酒店LY方正御星53度FDD1800_132；CGI：460-00-599811-132；问题发生时间：2023-9-4；干扰最强值：-108.63dbm；位置：浙江省杭州市拱墅区星桥街199号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-110门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2023-10-4</t>
-  </si>
-  <si>
-    <t>【服务内容】：未经许可的无线电设备的清理整治
-【本次工单服务内容】：来源：用户投诉；小区名称：萧山俞家潭LY萧山区政府_129；CGI：460-00-600024-129；问题发生时间：2023-9-4；干扰最强值：-94.8dbm；位置：浙江省杭州市萧山区金惠路398号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-110门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2023-10-4</t>
-  </si>
-  <si>
-    <t>【服务内容】：未经许可的无线电设备的清理整治
-【本次工单服务内容】：来源：用户投诉；小区名称：余杭计家斗FDD900_131；CGI：460-00-606218-131；问题发生时间：2023-9-4；干扰最强值：-102.2dbm；位置：浙江省杭州市余杭区花和雅居；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-110门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2023-10-4</t>
-  </si>
-  <si>
-    <t>【服务内容】：未经许可的无线电设备的清理整治
-【本次工单服务内容】：来源：用户投诉；小区名称：杭州春波小区三区块六期22号楼WG45度330度_130；CGI：460-00-606221-130；问题发生时间：2023-9-4；干扰最强值：-98.97dbm；位置：浙江省杭州市滨江区江陵路与滨兴路交叉口；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-110门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2023-10-4</t>
-  </si>
-  <si>
-    <t>【服务内容】：未经许可的无线电设备的清理整治
-【本次工单服务内容】：来源：用户投诉；小区名称：余杭西溪靖源国际LY余杭顾家桥北_129；CGI：460-00-606288-129；问题发生时间：2023-9-4；干扰最强值：-100.58dbm；位置：杭州市余杭区西坝路西溪花城西-北区；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-110门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2023-10-4</t>
-  </si>
-  <si>
-    <t>【服务内容】：未经许可的无线电设备的清理整治
-【本次工单服务内容】：来源：用户投诉；小区名称：萧山风情大道南段浅埋隧道SF_129；CGI：460-00-606308-129；问题发生时间：2023-9-4；干扰最强值：-88.87dbm；位置：浙江省杭州市萧山区湘湖路337号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-110门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2023-10-4</t>
-  </si>
-  <si>
-    <t>【服务内容】：未经许可的无线电设备的清理整治
-【本次工单服务内容】：来源：用户投诉；小区名称：萧山恒逸南岸明珠LY2号1号楼高层对打_139；CGI：460-00-606360-139；问题发生时间：2023-9-4；干扰最强值：-99.82dbm；位置：杭州市萧山区市心北路260号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-110门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2023-10-4</t>
+【本次工单服务内容】：来源：用户投诉；小区名称：H418570-杭州滨江区政府-HFH-FD18102-明豪大厦LY-66；CGI：460-00-821699-66；问题发生时间：2023-9-18；干扰最强值：-107.2dbm；位置：杭州市滨江区滨盛路1826号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-110门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2023-10-18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +99,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -172,8 +131,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -184,8 +146,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{EB665CA8-D0AD-4623-A9BC-330E1F51298B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -463,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -483,12 +446,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="52" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="39" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="52" x14ac:dyDescent="0.3">
@@ -496,71 +459,15 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="39" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="65" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="52" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="39" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="39" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="52" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="39" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="39" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="52" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/T1.xlsx
+++ b/T1.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e535f8675989f1ab/code/autopython/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{73D612FC-9C1E-431B-BA87-08C7A0A880DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6D6AE84-B8E3-45B2-ADFA-9B656A8D2EBF}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="13_ncr:1_{73D612FC-9C1E-431B-BA87-08C7A0A880DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C154FD54-7F19-466F-A038-82D7CD4AA0DE}"/>
   <bookViews>
-    <workbookView xWindow="6560" yWindow="1040" windowWidth="19600" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="510" windowWidth="21660" windowHeight="12530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$4</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -46,32 +49,186 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>杭州-4G干扰协调-萧山郡望府LY萧山中铁雅逸府SF_68</t>
-  </si>
-  <si>
-    <t>杭州-4G干扰协调-H418568-临平塘栖福斯达-HFH-FD18102-66</t>
-  </si>
-  <si>
-    <t>杭州-4G干扰协调-H418570-杭州滨江区政府-HFH-FD18102-明豪大厦LY-66</t>
-  </si>
-  <si>
-    <t>【服务内容】：未经许可的无线电设备的清理整治
-【本次工单服务内容】：来源：用户投诉；小区名称：萧山郡望府LY萧山中铁雅逸府SF_68；CGI：460-00-821685-68；问题发生时间：2023-9-18；干扰最强值：-99dbm；位置：浙江省杭州市萧山区香樟路与戚枫路交叉口西160米；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-110门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2023-10-18</t>
-  </si>
-  <si>
-    <t>【服务内容】：未经许可的无线电设备的清理整治
-【本次工单服务内容】：来源：用户投诉；小区名称：H418568-临平塘栖福斯达-HFH-FD18102-66；CGI：460-00-821687-66；问题发生时间：2023-9-18；干扰最强值：-100.03dbm；位置：浙江省杭州市临平区临平街道昌达路118号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-110门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2023-10-18</t>
-  </si>
-  <si>
-    <t>【服务内容】：未经许可的无线电设备的清理整治
-【本次工单服务内容】：来源：用户投诉；小区名称：H418570-杭州滨江区政府-HFH-FD18102-明豪大厦LY-66；CGI：460-00-821699-66；问题发生时间：2023-9-18；干扰最强值：-107.2dbm；位置：杭州市滨江区滨盛路1826号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-110门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2023-10-18</t>
+    <t>杭州-5G干扰协调-H11601725-萧山宝盛大厦CRAN@协和辉丰大厦-H5H-07101-431</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：H11601725-萧山宝盛大厦CRAN@协和辉丰大厦-H5H-07101-431；CGI：460-00-11601725-431；问题发生时间：2024-3-14；干扰最强值：-99.3dbm；位置：浙江省杭州市萧山区平澜路259号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-H11601946-杭州金润科技-H5H-07103-天和高科技产业园LY-133</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：H11601946-杭州金润科技-H5H-07103-天和高科技产业园LY-133；CGI：460-00-11601946-133；问题发生时间：2024-3-14；干扰最强值：-80.83dbm；位置：浙江省杭州市滨江区滨安路688号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-H11601966-杭州在水一方-H5H-07103-133</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：H11601966-杭州在水一方-H5H-07103-133；CGI：460-00-11601966-133；问题发生时间：2024-3-14；干扰最强值：-94.84dbm；位置：杭州市上城区富春路文华苑；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-H11602029-杭州昆仑中心-H5H-07101-131</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：H11602029-杭州昆仑中心-H5H-07101-131；CGI：460-00-11602029-131；问题发生时间：2024-3-14；干扰最强值：-82.95dbm；位置：杭州市上城区富春路113号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-H11602138-杭州刑侦中心CRAN@新盛大酒店-H5H-07103-133</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：H11602138-杭州刑侦中心CRAN@新盛大酒店-H5H-07103-133；CGI：460-00-11602138-133；问题发生时间：2024-3-14；干扰最强值：-97.63dbm；位置：浙江省杭州市庆春路46号杭州银行大厦；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-H11602172-杭州京晋大厦CRAN@浙一医院中区5号楼-H5H-07103-133</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：H11602172-杭州京晋大厦CRAN@浙一医院中区5号楼-H5H-07103-133；CGI：460-00-11602172-133；问题发生时间：2024-3-14；干扰最强值：-80.83dbm；位置：杭州市上城区皇诰巷杭州劳动大楼南侧；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-H11602350-杭州西湖东海宾馆-H5H-07101-131</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：H11602350-杭州西湖东海宾馆-H5H-07101-131；CGI：460-00-11602350-131；问题发生时间：2024-3-14；干扰最强值：-94dbm；位置：杭州市西湖区天目山路1号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-H11602385-杭州西湖长线局-H5H-07102-132</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：H11602385-杭州西湖长线局-H5H-07102-132；CGI：460-00-11602385-132；问题发生时间：2024-3-14；干扰最强值：-73.89dbm；位置：浙江省杭州市保俶路238号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-H11602392-杭州西湖省音乐厅CRAN@松木场-H5H-07105-232</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：H11602392-杭州西湖省音乐厅CRAN@松木场-H5H-07105-232；CGI：460-00-11602392-232；问题发生时间：2024-3-14；干扰最强值：-95.48dbm；位置：浙江杭州市西湖区体育场路632号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-H11602401-杭州西湖武林综合楼-H5H-07101-131</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：H11602401-杭州西湖武林综合楼-H5H-07101-131；CGI：460-00-11602401-131；问题发生时间：2024-3-14；干扰最强值：-84.42dbm；位置： 浙江省杭州市西湖区文三路90号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-H11602440-临平沾驾桥CRAN@四维村-H5H-07103-233</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：H11602440-临平沾驾桥CRAN@四维村-H5H-07103-233；CGI：460-00-11602440-233；问题发生时间：2024-3-14；干扰最强值：-102.75dbm；位置： 杭州市临平区运河路独山新苑-南苑；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-H11602455-杭州西湖华门商务中心-H5H-07101-文二路文化出版局LY-231</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：H11602455-杭州西湖华门商务中心-H5H-07101-文二路文化出版局LY-231；CGI：460-00-11602455-231；问题发生时间：2024-3-14；干扰最强值：-101.77dbm；位置：浙江省杭州市西湖区学院路行知巷6号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-H11602456-杭州滨江南郊化学厂-H5H-07102-132</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：H11602456-杭州滨江南郊化学厂-H5H-07102-132；CGI：460-00-11602456-132；问题发生时间：2024-3-14；干扰最强值：-104.27dbm；位置：浙江省杭州市滨江区西浦新生区块；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-H11602800-杭州西湖天科教仪-H5H-07103-133</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：H11602800-杭州西湖天科教仪-H5H-07103-133；CGI：460-00-11602800-133；问题发生时间：2024-3-14；干扰最强值：-84.03dbm；位置：浙江省杭州市西湖区西溪路887号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-H11602833-杭州西湖佳禧假日酒店-H5H-07105-杨家牌楼LY-232</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：H11602833-杭州西湖佳禧假日酒店-H5H-07105-杨家牌楼LY-232；CGI：460-00-11602833-232；问题发生时间：2024-3-14；干扰最强值：-84.25dbm；位置：杭州市西湖区留下街道杨家牌楼80号杨家牌楼211号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-H11602864-杭州西湖留下平基村-H5H-07102-132</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：H11602864-杭州西湖留下平基村-H5H-07102-132；CGI：460-00-11602864-132；问题发生时间：2024-3-14；干扰最强值：-97.14dbm；位置：杭州市西湖区留下街道5号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-H11603029-杭州富阳朝阳路近康健路-H5H-07103-133</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：H11603029-杭州富阳朝阳路近康健路-H5H-07103-133；CGI：460-00-11603029-133；问题发生时间：2024-3-14；干扰最强值：-101dbm；位置：浙江省杭州市富阳区大源村；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-H11603138-余杭新闲林时代城市CRAN@钱家岭北-H5H-07101-131</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：H11603138-余杭新闲林时代城市CRAN@钱家岭北-H5H-07101-131；CGI：460-00-11603138-131；问题发生时间：2024-3-14；干扰最强值：-79.28dbm；位置：浙江省杭州市余杭区闲富南路与学校路交叉路口；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-H11603237-杭州富阳商业城-H5H-07103-富阳电力大楼LY-333</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：H11603237-杭州富阳商业城-H5H-07103-富阳电力大楼LY-333；CGI：460-00-11603237-333；问题发生时间：2024-3-14；干扰最强值：-99.3dbm；位置：杭州市富阳区迎宾路45号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-H11603238-杭州富阳东山CRAN@杭州富阳虎山社区-H5H-07102-432</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：H11603238-杭州富阳东山CRAN@杭州富阳虎山社区-H5H-07102-432；CGI：460-00-11603238-432；问题发生时间：2024-3-14；干扰最强值：-100.14dbm；位置：浙江省杭州市富阳区大桥北路51号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-H11603249-余杭桃花源-H5H-07102-福田假日之约LY-132</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：H11603249-余杭桃花源-H5H-07102-福田假日之约LY-132；CGI：460-00-11603249-132；问题发生时间：2024-3-14；干扰最强值：-96.97dbm；位置：杭州市余杭区禹航路43号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-H11603266-杭州富阳城北-H5H-07101-131</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：H11603266-杭州富阳城北-H5H-07101-131；CGI：460-00-11603266-131；问题发生时间：2024-3-14；干扰最强值：-81.95dbm；位置：杭州市富阳区巨利路与恩波大道交叉口；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-H11603630-杭州富阳新登老街-H5H-07103-133</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：H11603630-杭州富阳新登老街-H5H-07103-133；CGI：460-00-11603630-133；问题发生时间：2024-3-14；干扰最强值：-103.36dbm；位置：浙江省杭州市富阳区共和南路75号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-H11603885-临安无他-H5H-07102-杭州临安石朋村LY-132</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：H11603885-临安无他-H5H-07102-杭州临安石朋村LY-132；CGI：460-00-11603885-132；问题发生时间：2024-3-14；干扰最强值：-85.39dbm；位置： 浙江省杭州市临安区新都村；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-H11603917-杭州临安农行大楼-H5H-07101-杭州临安福利康复中心LY-632</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：H11603917-杭州临安农行大楼-H5H-07101-杭州临安福利康复中心LY-632；CGI：460-00-11603917-632；问题发生时间：2024-3-14；干扰最强值：-85.91dbm；位置：浙江省杭州市临安区锦城街道；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,12 +249,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -133,7 +284,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -142,8 +293,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -426,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -446,31 +597,208 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="39" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="182" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="182" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="52" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:2" ht="182" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="65" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:B4" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/T1.xlsx
+++ b/T1.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e535f8675989f1ab/code/autopython/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="13_ncr:1_{73D612FC-9C1E-431B-BA87-08C7A0A880DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C154FD54-7F19-466F-A038-82D7CD4AA0DE}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="13_ncr:1_{73D612FC-9C1E-431B-BA87-08C7A0A880DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{760BE8AB-5D59-4EC6-8D4C-7575C7E83144}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="510" windowWidth="21660" windowHeight="12530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3770" yWindow="300" windowWidth="19040" windowHeight="11990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="67">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -49,179 +50,231 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>杭州-5G干扰协调-H11601725-萧山宝盛大厦CRAN@协和辉丰大厦-H5H-07101-431</t>
-  </si>
-  <si>
-    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
-【本次工单服务内容】：来源：干扰工单；小区名称：H11601725-萧山宝盛大厦CRAN@协和辉丰大厦-H5H-07101-431；CGI：460-00-11601725-431；问题发生时间：2024-3-14；干扰最强值：-99.3dbm；位置：浙江省杭州市萧山区平澜路259号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
-  </si>
-  <si>
-    <t>杭州-5G干扰协调-H11601946-杭州金润科技-H5H-07103-天和高科技产业园LY-133</t>
-  </si>
-  <si>
-    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
-【本次工单服务内容】：来源：干扰工单；小区名称：H11601946-杭州金润科技-H5H-07103-天和高科技产业园LY-133；CGI：460-00-11601946-133；问题发生时间：2024-3-14；干扰最强值：-80.83dbm；位置：浙江省杭州市滨江区滨安路688号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
-  </si>
-  <si>
-    <t>杭州-5G干扰协调-H11601966-杭州在水一方-H5H-07103-133</t>
-  </si>
-  <si>
-    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
-【本次工单服务内容】：来源：干扰工单；小区名称：H11601966-杭州在水一方-H5H-07103-133；CGI：460-00-11601966-133；问题发生时间：2024-3-14；干扰最强值：-94.84dbm；位置：杭州市上城区富春路文华苑；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
-  </si>
-  <si>
-    <t>杭州-5G干扰协调-H11602029-杭州昆仑中心-H5H-07101-131</t>
-  </si>
-  <si>
-    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
-【本次工单服务内容】：来源：干扰工单；小区名称：H11602029-杭州昆仑中心-H5H-07101-131；CGI：460-00-11602029-131；问题发生时间：2024-3-14；干扰最强值：-82.95dbm；位置：杭州市上城区富春路113号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
-  </si>
-  <si>
-    <t>杭州-5G干扰协调-H11602138-杭州刑侦中心CRAN@新盛大酒店-H5H-07103-133</t>
-  </si>
-  <si>
-    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
-【本次工单服务内容】：来源：干扰工单；小区名称：H11602138-杭州刑侦中心CRAN@新盛大酒店-H5H-07103-133；CGI：460-00-11602138-133；问题发生时间：2024-3-14；干扰最强值：-97.63dbm；位置：浙江省杭州市庆春路46号杭州银行大厦；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
-  </si>
-  <si>
-    <t>杭州-5G干扰协调-H11602172-杭州京晋大厦CRAN@浙一医院中区5号楼-H5H-07103-133</t>
-  </si>
-  <si>
-    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
-【本次工单服务内容】：来源：干扰工单；小区名称：H11602172-杭州京晋大厦CRAN@浙一医院中区5号楼-H5H-07103-133；CGI：460-00-11602172-133；问题发生时间：2024-3-14；干扰最强值：-80.83dbm；位置：杭州市上城区皇诰巷杭州劳动大楼南侧；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
-  </si>
-  <si>
-    <t>杭州-5G干扰协调-H11602350-杭州西湖东海宾馆-H5H-07101-131</t>
-  </si>
-  <si>
-    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
-【本次工单服务内容】：来源：干扰工单；小区名称：H11602350-杭州西湖东海宾馆-H5H-07101-131；CGI：460-00-11602350-131；问题发生时间：2024-3-14；干扰最强值：-94dbm；位置：杭州市西湖区天目山路1号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
-  </si>
-  <si>
-    <t>杭州-5G干扰协调-H11602385-杭州西湖长线局-H5H-07102-132</t>
-  </si>
-  <si>
-    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
-【本次工单服务内容】：来源：干扰工单；小区名称：H11602385-杭州西湖长线局-H5H-07102-132；CGI：460-00-11602385-132；问题发生时间：2024-3-14；干扰最强值：-73.89dbm；位置：浙江省杭州市保俶路238号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
-  </si>
-  <si>
-    <t>杭州-5G干扰协调-H11602392-杭州西湖省音乐厅CRAN@松木场-H5H-07105-232</t>
-  </si>
-  <si>
-    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
-【本次工单服务内容】：来源：干扰工单；小区名称：H11602392-杭州西湖省音乐厅CRAN@松木场-H5H-07105-232；CGI：460-00-11602392-232；问题发生时间：2024-3-14；干扰最强值：-95.48dbm；位置：浙江杭州市西湖区体育场路632号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
-  </si>
-  <si>
-    <t>杭州-5G干扰协调-H11602401-杭州西湖武林综合楼-H5H-07101-131</t>
-  </si>
-  <si>
-    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
-【本次工单服务内容】：来源：干扰工单；小区名称：H11602401-杭州西湖武林综合楼-H5H-07101-131；CGI：460-00-11602401-131；问题发生时间：2024-3-14；干扰最强值：-84.42dbm；位置： 浙江省杭州市西湖区文三路90号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
-  </si>
-  <si>
-    <t>杭州-5G干扰协调-H11602440-临平沾驾桥CRAN@四维村-H5H-07103-233</t>
-  </si>
-  <si>
-    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
-【本次工单服务内容】：来源：干扰工单；小区名称：H11602440-临平沾驾桥CRAN@四维村-H5H-07103-233；CGI：460-00-11602440-233；问题发生时间：2024-3-14；干扰最强值：-102.75dbm；位置： 杭州市临平区运河路独山新苑-南苑；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
-  </si>
-  <si>
-    <t>杭州-5G干扰协调-H11602455-杭州西湖华门商务中心-H5H-07101-文二路文化出版局LY-231</t>
-  </si>
-  <si>
-    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
-【本次工单服务内容】：来源：干扰工单；小区名称：H11602455-杭州西湖华门商务中心-H5H-07101-文二路文化出版局LY-231；CGI：460-00-11602455-231；问题发生时间：2024-3-14；干扰最强值：-101.77dbm；位置：浙江省杭州市西湖区学院路行知巷6号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
-  </si>
-  <si>
-    <t>杭州-5G干扰协调-H11602456-杭州滨江南郊化学厂-H5H-07102-132</t>
-  </si>
-  <si>
-    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
-【本次工单服务内容】：来源：干扰工单；小区名称：H11602456-杭州滨江南郊化学厂-H5H-07102-132；CGI：460-00-11602456-132；问题发生时间：2024-3-14；干扰最强值：-104.27dbm；位置：浙江省杭州市滨江区西浦新生区块；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
-  </si>
-  <si>
-    <t>杭州-5G干扰协调-H11602800-杭州西湖天科教仪-H5H-07103-133</t>
-  </si>
-  <si>
-    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
-【本次工单服务内容】：来源：干扰工单；小区名称：H11602800-杭州西湖天科教仪-H5H-07103-133；CGI：460-00-11602800-133；问题发生时间：2024-3-14；干扰最强值：-84.03dbm；位置：浙江省杭州市西湖区西溪路887号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
-  </si>
-  <si>
-    <t>杭州-5G干扰协调-H11602833-杭州西湖佳禧假日酒店-H5H-07105-杨家牌楼LY-232</t>
-  </si>
-  <si>
-    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
-【本次工单服务内容】：来源：干扰工单；小区名称：H11602833-杭州西湖佳禧假日酒店-H5H-07105-杨家牌楼LY-232；CGI：460-00-11602833-232；问题发生时间：2024-3-14；干扰最强值：-84.25dbm；位置：杭州市西湖区留下街道杨家牌楼80号杨家牌楼211号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
-  </si>
-  <si>
-    <t>杭州-5G干扰协调-H11602864-杭州西湖留下平基村-H5H-07102-132</t>
-  </si>
-  <si>
-    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
-【本次工单服务内容】：来源：干扰工单；小区名称：H11602864-杭州西湖留下平基村-H5H-07102-132；CGI：460-00-11602864-132；问题发生时间：2024-3-14；干扰最强值：-97.14dbm；位置：杭州市西湖区留下街道5号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
-  </si>
-  <si>
-    <t>杭州-5G干扰协调-H11603029-杭州富阳朝阳路近康健路-H5H-07103-133</t>
-  </si>
-  <si>
-    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
-【本次工单服务内容】：来源：干扰工单；小区名称：H11603029-杭州富阳朝阳路近康健路-H5H-07103-133；CGI：460-00-11603029-133；问题发生时间：2024-3-14；干扰最强值：-101dbm；位置：浙江省杭州市富阳区大源村；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
-  </si>
-  <si>
-    <t>杭州-5G干扰协调-H11603138-余杭新闲林时代城市CRAN@钱家岭北-H5H-07101-131</t>
-  </si>
-  <si>
-    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
-【本次工单服务内容】：来源：干扰工单；小区名称：H11603138-余杭新闲林时代城市CRAN@钱家岭北-H5H-07101-131；CGI：460-00-11603138-131；问题发生时间：2024-3-14；干扰最强值：-79.28dbm；位置：浙江省杭州市余杭区闲富南路与学校路交叉路口；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
-  </si>
-  <si>
-    <t>杭州-5G干扰协调-H11603237-杭州富阳商业城-H5H-07103-富阳电力大楼LY-333</t>
-  </si>
-  <si>
-    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
-【本次工单服务内容】：来源：干扰工单；小区名称：H11603237-杭州富阳商业城-H5H-07103-富阳电力大楼LY-333；CGI：460-00-11603237-333；问题发生时间：2024-3-14；干扰最强值：-99.3dbm；位置：杭州市富阳区迎宾路45号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
-  </si>
-  <si>
-    <t>杭州-5G干扰协调-H11603238-杭州富阳东山CRAN@杭州富阳虎山社区-H5H-07102-432</t>
-  </si>
-  <si>
-    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
-【本次工单服务内容】：来源：干扰工单；小区名称：H11603238-杭州富阳东山CRAN@杭州富阳虎山社区-H5H-07102-432；CGI：460-00-11603238-432；问题发生时间：2024-3-14；干扰最强值：-100.14dbm；位置：浙江省杭州市富阳区大桥北路51号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
-  </si>
-  <si>
-    <t>杭州-5G干扰协调-H11603249-余杭桃花源-H5H-07102-福田假日之约LY-132</t>
-  </si>
-  <si>
-    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
-【本次工单服务内容】：来源：干扰工单；小区名称：H11603249-余杭桃花源-H5H-07102-福田假日之约LY-132；CGI：460-00-11603249-132；问题发生时间：2024-3-14；干扰最强值：-96.97dbm；位置：杭州市余杭区禹航路43号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
-  </si>
-  <si>
-    <t>杭州-5G干扰协调-H11603266-杭州富阳城北-H5H-07101-131</t>
-  </si>
-  <si>
-    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
-【本次工单服务内容】：来源：干扰工单；小区名称：H11603266-杭州富阳城北-H5H-07101-131；CGI：460-00-11603266-131；问题发生时间：2024-3-14；干扰最强值：-81.95dbm；位置：杭州市富阳区巨利路与恩波大道交叉口；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
-  </si>
-  <si>
-    <t>杭州-5G干扰协调-H11603630-杭州富阳新登老街-H5H-07103-133</t>
-  </si>
-  <si>
-    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
-【本次工单服务内容】：来源：干扰工单；小区名称：H11603630-杭州富阳新登老街-H5H-07103-133；CGI：460-00-11603630-133；问题发生时间：2024-3-14；干扰最强值：-103.36dbm；位置：浙江省杭州市富阳区共和南路75号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
-  </si>
-  <si>
-    <t>杭州-5G干扰协调-H11603885-临安无他-H5H-07102-杭州临安石朋村LY-132</t>
-  </si>
-  <si>
-    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
-【本次工单服务内容】：来源：干扰工单；小区名称：H11603885-临安无他-H5H-07102-杭州临安石朋村LY-132；CGI：460-00-11603885-132；问题发生时间：2024-3-14；干扰最强值：-85.39dbm；位置： 浙江省杭州市临安区新都村；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
-  </si>
-  <si>
-    <t>杭州-5G干扰协调-H11603917-杭州临安农行大楼-H5H-07101-杭州临安福利康复中心LY-632</t>
-  </si>
-  <si>
-    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
-【本次工单服务内容】：来源：干扰工单；小区名称：H11603917-杭州临安农行大楼-H5H-07101-杭州临安福利康复中心LY-632；CGI：460-00-11603917-632；问题发生时间：2024-3-14；干扰最强值：-85.91dbm；位置：浙江省杭州市临安区锦城街道；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-13</t>
+    <t>杭州-5G干扰协调-H11665687-富阳陆家村-H5H-26101-杭州富阳宋都江宸府LY-211</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-H11666330-杭州滨江区政府南广场地下停车场-H5W-26606-滨江公安分局大楼LY-116</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-H11666404-杭州中医大学21号楼信源池-H5W-26606-杭州滨江中医大学17幢18幢19幢SF-124</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-H11666930-杭州长河高级中学CRAN@滨江工业综合体-H5H-26101-111</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-H11667177-杭州西湖蒋村派出所-H5H-26101-文新颐景园南LY-111</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-H11667949-萧山机场员工新宿舍楼-H5W-26601-56号楼平层电梯地下室SF-111</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-H11668022-陆家村搬迁-H5H-26101-杭州富阳嘉禾广场搬迁LY-111</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-H11668264-余杭高铁西站西CRAN@杭州西站枢纽I-R21-14地块安置房-H5H-26102-112</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-富阳新登正和新天地CRAN富阳新登工业区西_211</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-杭州UT斯达康LY杭州海创基地SFNR_111</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-杭州滨江杭州商业技校教学楼A南SFNR_112</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-杭州春波小区北_113</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-杭州勾山国际CRAN柳浪闻莺_113</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-杭州宏丽宾馆_112</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-杭州江干天杭大酒店_112</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-杭州金家岭_111</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-杭州钱塘越西客车_111</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-杭州三叉花园LY四季青信用社_111</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-杭州省器材公司CRAN浙工大毓秀堂_212</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-杭州网易软件园LY滨江交警D_111</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-杭州西湖创意小镇CRAN石龙山社区北_211</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-杭州信雅达国际LY铂悦轩_113</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-杭州元通大厦营业厅LSFNR_111</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-杭州长睦汇聚CRAN丁桥皋城村_211</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-杭州浙工大养贤府LY浙工大健行楼_112</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-杭州中村_112</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-杭州转塘石龙山_111</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-江干清泰商务楼LY观音塘医院家属楼_311</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-临安昌化大道_113</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-临安高虹东LY高虹_112</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-临安高虹东汇聚C-RAN机房LY拜节容量_111</t>
+  </si>
+  <si>
+    <t>杭州-5G干扰协调-临安高虹东汇聚C-RAN机房LY高虹镇_112</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：H11665687-富阳陆家村-H5H-26101-杭州富阳宋都江宸府LY-211；CGI：460-00-11665687-211；问题发生时间：2024-3-25；干扰最强值：-98.53dbm；位置：杭州市富阳区江波街与依江路交叉路口；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-24</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：H11666330-杭州滨江区政府南广场地下停车场-H5W-26606-滨江公安分局大楼LY-116；CGI：460-00-11666330-116；问题发生时间：2024-3-25；干扰最强值：-93.08dbm；位置：杭州市滨江区月明路1000号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-24</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：H11666404-杭州中医大学21号楼信源池-H5W-26606-杭州滨江中医大学17幢18幢19幢SF-124；CGI：460-00-11666404-124；问题发生时间：2024-3-25；干扰最强值：-89.31dbm；位置：浙江省杭州市滨江区滨文路548号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-24</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：H11666930-杭州长河高级中学CRAN@滨江工业综合体-H5H-26101-111；CGI：460-00-11666930-111；问题发生时间：2024-3-25；干扰最强值：-96.14dbm；位置：浙江省杭州市滨江区滨文路227号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-24</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：H11667177-杭州西湖蒋村派出所-H5H-26101-文新颐景园南LY-111；CGI：460-00-11667177-111；问题发生时间：2024-3-25；干扰最强值：-102.75dbm；位置：浙江省杭州市西湖区文二西路630号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-24</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：H11667949-萧山机场员工新宿舍楼-H5W-26601-56号楼平层电梯地下室SF-111；CGI：460-00-11667949-111；问题发生时间：2024-3-25；干扰最强值：-93.95dbm；位置：浙江省杭州市萧山区南阳街道横蓬路与红翔线交叉口西南方向；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-24</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：H11668022-陆家村搬迁-H5H-26101-杭州富阳嘉禾广场搬迁LY-111；CGI：460-00-11668022-111；问题发生时间：2024-3-25；干扰最强值：-75.56dbm；位置：浙江省杭州市富阳区江波街与迎春路交叉口西南方向；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-24</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：H11668264-余杭高铁西站西CRAN@杭州西站枢纽I-R21-14地块安置房-H5H-26102-112；CGI：460-00-11668264-112；问题发生时间：2024-3-25；干扰最强值：-95.59dbm；位置：浙江省杭州市余杭区龙泉路22号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-24</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：富阳新登正和新天地CRAN富阳新登工业区西_211；CGI：460-00-11539656-211；问题发生时间：2024-3-25；干扰最强值：-94.8dbm；位置：浙江省杭州市富阳区新登镇共和北路272号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-24</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：杭州UT斯达康LY杭州海创基地SFNR_111；CGI：460-00-11540155-111；问题发生时间：2024-3-25；干扰最强值：-106.13dbm；位置：浙江省杭州市滨江区高新技术开发区六和路368号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-24</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：杭州滨江杭州商业技校教学楼A南SFNR_112；CGI：460-00-11543872-112；问题发生时间：2024-3-25；干扰最强值：-77.55dbm；位置：浙江省杭州市滨江区滨文路470号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-24</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：杭州春波小区北_113；CGI：460-00-11534796-113；问题发生时间：2024-3-25；干扰最强值：-102dbm；位置：浙江省杭州市滨江区春晓路16号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-24</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：杭州勾山国际CRAN柳浪闻莺_113；CGI：460-00-11542756-113；问题发生时间：2024-3-25；干扰最强值：-65.66dbm；位置：浙江省杭州市南山路清波桥河下6号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-24</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：杭州宏丽宾馆_112；CGI：460-00-11536696-112；问题发生时间：2024-3-25；干扰最强值：-88.28dbm；位置：浙江省杭州市上城区秋涛北路257号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-24</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：杭州江干天杭大酒店_112；CGI：460-00-11535192-112；问题发生时间：2024-3-25；干扰最强值：-81.97dbm；位置：浙江省杭州市上城区机场路机身新村1幢；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-24</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：杭州金家岭_111；CGI：460-00-11535394-111；问题发生时间：2024-3-25；干扰最强值：-101.53dbm；位置：杭州市西湖区320国道辅路附近；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-24</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：杭州钱塘越西客车_111；CGI：460-00-11538661-111；问题发生时间：2024-3-25；干扰最强值：-94.83dbm；位置：浙江省杭州市钱塘区经济技术开发区河庄街道东垦路888号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-24</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：杭州三叉花园LY四季青信用社_111；CGI：460-00-11538853-111；问题发生时间：2024-3-25；干扰最强值：-101.61dbm；位置：浙江省杭州市杭海路199号杭州孔雀大厦；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-24</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：杭州省器材公司CRAN浙工大毓秀堂_212；CGI：460-00-11538668-212；问题发生时间：2024-3-25；干扰最强值：-92.75dbm；位置：浙江省杭州市潮王路18号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-24</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：杭州网易软件园LY滨江交警D_111；CGI：460-00-11539286-111；问题发生时间：2024-3-25；干扰最强值：-100.36dbm；位置：浙江省杭州市滨江区江晖路918号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-24</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：杭州西湖创意小镇CRAN石龙山社区北_211；CGI：460-00-11535525-211；问题发生时间：2024-3-25；干扰最强值：-103.22dbm；位置：浙江省杭州市西湖区象山支弄1号大有园区2栋；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-24</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：杭州信雅达国际LY铂悦轩_113；CGI：460-00-11538056-113；问题发生时间：2024-3-25；干扰最强值：-93.98dbm；位置：浙江省杭州市滨盛路1870号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-24</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：杭州元通大厦营业厅LSFNR_111；CGI：460-00-11537974-111；问题发生时间：2024-3-25；干扰最强值：-94.14dbm；位置：杭州市拱墅区天元巷戒坛寺巷社区；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-24</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：杭州长睦汇聚CRAN丁桥皋城村_211；CGI：460-00-11537463-211；问题发生时间：2024-3-25；干扰最强值：-93.09dbm；位置：杭州市临平区天祥西路与欢西路交叉口；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-24</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：杭州浙工大养贤府LY浙工大健行楼_112；CGI：460-00-11536438-112；问题发生时间：2024-3-25；干扰最强值：-85.55dbm；位置：杭州市西湖区留和路288号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-24</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：杭州中村_112；CGI：460-00-11535791-112；问题发生时间：2024-3-25；干扰最强值：-105.77dbm；位置：杭州市西湖区凌中段；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-24</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：杭州转塘石龙山_111；CGI：460-00-11535788-111；问题发生时间：2024-3-25；干扰最强值：-93.97dbm；位置：浙江省杭州市西湖区象山支弄1号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-24</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：江干清泰商务楼LY观音塘医院家属楼_311；CGI：460-00-11535186-311；问题发生时间：2024-3-25；干扰最强值：-85.97dbm；位置：杭州市上城区下车路观音塘小区；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-24</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：临安昌化大道_113；CGI：460-00-11543086-113；问题发生时间：2024-3-25；干扰最强值：-97.7dbm；位置：浙江省杭州市临安区唐昌街600号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-24</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：临安高虹东LY高虹_112；CGI：460-00-11542334-112；问题发生时间：2024-3-25；干扰最强值：-87.16dbm；位置：浙江省杭州市临安区德胜街2号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-24</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：临安高虹东汇聚C-RAN机房LY拜节容量_111；CGI：460-00-11543404-111；问题发生时间：2024-3-25；干扰最强值：-88.19dbm；位置：浙江省杭州市临安区高虹南街298号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-24</t>
+  </si>
+  <si>
+    <t>【服务内容】：配合无线电管理局开展未经许可的无线电设备的清理整治
+【本次工单服务内容】：来源：干扰工单；小区名称：临安高虹东汇聚C-RAN机房LY高虹镇_112；CGI：460-00-11543400-112；问题发生时间：2024-3-25；干扰最强值：-88.22dbm；位置：浙江省杭州市临安区德胜街1号；要求：联系责任单位并沟通、协调解决，协调解决后天级干扰值应小于-107门限，若对方责任单位需要替换设备、联系维保单位上门调试等原因，可适当延长协调时间；要求完成时间：2024-4-24</t>
+  </si>
+  <si>
+    <t>外部干扰器</t>
   </si>
 </sst>
 </file>
@@ -288,13 +341,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -577,19 +627,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="34.9140625" customWidth="1"/>
+    <col min="1" max="1" width="31.08203125" customWidth="1"/>
+    <col min="2" max="2" width="63" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -597,208 +648,373 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="182" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="182" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="182" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B4" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:C33" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A9819F1-7D5C-4865-A9F2-4F42C7900935}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
